--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2839626.179744007</v>
+        <v>2833904.56777612</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.8457639961992</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>169.3331719059339</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.706926911161699</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>322.6805862027269</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>203.5933316365559</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.220846587375998</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>59.18479046408402</v>
+        <v>343.372584904993</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>87.12574707908773</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>74.09108060706342</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,13 +1578,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>111.1311583549945</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>84.60478350964988</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.994037684623516</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>162.7380692336866</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>128.2775608618779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>278.4542148551058</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>112.3510358808138</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>179.1489883824449</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.438074193801</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>170.7210134579015</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.7123319296398</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>246.6797412004536</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.17114003726772</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>52.79913863645188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.5808755818449</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2294.899305877094</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2041.137520515185</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1710.074633171615</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1357.305977901501</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>983.8402196404209</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>726.4048156093014</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1344.046505337896</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1344.046505337896</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>2118.033502821228</v>
       </c>
       <c r="Y5" t="n">
-        <v>1344.046505337896</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.372199209267</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.372199209267</v>
+        <v>1883.018552632492</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.372199209267</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E8" t="n">
-        <v>1005.372199209267</v>
+        <v>1138.964601427497</v>
       </c>
       <c r="F8" t="n">
-        <v>594.3862944196599</v>
+        <v>727.9786966378899</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5029,7 +5029,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5047,22 +5047,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.7425750505952</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226883</v>
+        <v>414.6161344886295</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E13" t="n">
         <v>339.7766591279594</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1754.259313554157</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1532.492698123682</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1532.492698123682</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.808209917795</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>988.3910398808349</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X13" t="n">
-        <v>988.3910398808349</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.3910398808349</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5290,40 +5290,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5348,13 +5348,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.7429179653792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.643339221624</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1078.183961939149</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>857.3913827956189</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>806.161341878638</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1670.680157531993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2649.230460361821</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.9179079604254</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>641.9817250325185</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.555923688682</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>992.5663727906651</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>992.5663727906651</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5755,19 +5755,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1339.447785386687</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2317.998088216516</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5782,16 +5782,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>725.2129316856142</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>556.2767487577073</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>406.1601093453716</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>406.1601093453716</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>406.1601093453716</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.643526557401</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.643526557401</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.653975659384</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.8613965158539</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004705</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.6864413838521</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C25" t="n">
-        <v>540.7502584559452</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560685</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1675.076582412678</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1420.392094206791</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838521</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.6864413838521</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>919.9473678912357</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1784.46618354459</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216515</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443162</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1553.754704401243</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.337534364282</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.347983466265</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>815.5554043227345</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2915.526830679739</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3161.484915442976</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C31" t="n">
-        <v>3161.484915442976</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>3161.484915442976</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>3161.484915442976</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>3014.594967945065</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4556.285106989246</v>
+        <v>1583.699007807848</v>
       </c>
       <c r="U31" t="n">
-        <v>4267.182240114889</v>
+        <v>1294.596140933492</v>
       </c>
       <c r="V31" t="n">
-        <v>4012.497751909003</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="W31" t="n">
-        <v>3723.080581872042</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X31" t="n">
-        <v>3495.091030974025</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y31" t="n">
-        <v>3343.133380273216</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M32" t="n">
-        <v>2006.06516444065</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667297</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3529.429247383706</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>3360.493064455799</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>3210.376425043463</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E34" t="n">
-        <v>3210.376425043463</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F34" t="n">
-        <v>3063.486477545553</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G34" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4515.775797037953</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.009181607479</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4004.906314733123</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>3750.221826527236</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>3750.221826527236</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>3750.221826527236</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>3529.429247383706</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6940,22 +6940,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1287.040180767971</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2265.5904835978</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2812.369300656582</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986037</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188665</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3063.486477545553</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C37" t="n">
-        <v>3063.486477545553</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D37" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>1106.472070799367</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456396</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="X37" t="n">
-        <v>3441.564240456396</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y37" t="n">
-        <v>3220.771661312866</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2903.481887689699</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232731</v>
@@ -7210,13 +7210,13 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754298</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3611.420297926401</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>3442.484114998494</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3292.367475586158</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3292.367475586158</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3145.477528088248</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>3145.477528088248</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>2999.260341306106</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4496.535381004074</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4496.535381004074</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>4241.850892798187</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>4241.850892798187</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>4013.86134190017</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3793.06876275664</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>666.4259024757214</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1530.944718129076</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2064.476622801001</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1302.311063288258</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1302.311063288258</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1302.311063288258</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947134</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3931.363334276589</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>827.5554641779659</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.57685067423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.892362468343</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1190.475192431382</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>962.4856415333647</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>962.4856415333647</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,10 +8695,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M11" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>189.7998007892635</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>189.7998007892643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>103.7862464855143</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571619195</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>304.7351805999691</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>64.28566532692435</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>83.16722118949247</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>50.84927212317484</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>76.45227440777273</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>48.65289230146976</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>80.35488666587537</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.52439241114894</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>78.63786697644736</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>141.1048718793873</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>140.6214353335888</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>3.287739025341665</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>20.33791215633448</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>7.75762335050706</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.7866074430142</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>40.39996089372428</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.14657915829375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>19.04801187354039</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.11964825229754</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>5.457902123374396</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>15.18128037257037</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.3385046873761</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.25110460009242</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771810.9734747779</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="F2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="I2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="J2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="K2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="F2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="I2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="J2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.8590191728</v>
-      </c>
-      <c r="L2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191727</v>
       </c>
       <c r="O2" t="n">
         <v>635330.8590191728</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
         <v>18148.49231918993</v>
@@ -26459,7 +26459,7 @@
         <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436553</v>
+        <v>-199342.2282436554</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.650970889</v>
+        <v>390625.6509708893</v>
       </c>
       <c r="D6" t="n">
-        <v>390625.6509708893</v>
+        <v>390625.6509708891</v>
       </c>
       <c r="E6" t="n">
-        <v>-206578.5655471377</v>
+        <v>-207250.5204493953</v>
       </c>
       <c r="F6" t="n">
-        <v>520798.8484462695</v>
+        <v>520126.8935440111</v>
       </c>
       <c r="G6" t="n">
-        <v>520798.8484462695</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="H6" t="n">
-        <v>520798.8484462691</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="I6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440111</v>
       </c>
       <c r="J6" t="n">
-        <v>344375.6292536763</v>
+        <v>343703.6743514182</v>
       </c>
       <c r="K6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440112</v>
       </c>
       <c r="L6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440112</v>
       </c>
       <c r="M6" t="n">
-        <v>391156.5336073247</v>
+        <v>390484.5787050664</v>
       </c>
       <c r="N6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="O6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="P6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.8880776672813</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>47.11514845172391</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>16.63754732114117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>144.9582650689961</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>32.00245541795607</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>12.85498872110193</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>202.9246923626429</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>354.599379556711</v>
+        <v>70.41158511580198</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>138.5839083099494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-4.615617308041251e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M11" t="n">
-        <v>715.1385088750701</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35430,10 +35430,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>742.101636202175</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>526.9910873446648</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>559.3763608778464</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>475.3876201085241</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36597,28 +36597,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>641.9264671553696</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36840,13 +36840,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>572.3386662151435</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37071,13 +37071,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>622.0883370197192</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37089,7 +37089,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>506.439386515507</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
@@ -37554,10 +37554,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>584.5052752959919</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>385.8441788568703</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>479.1168728852472</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2833904.56777612</v>
+        <v>2837310.05890057</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>10.51873787623841</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>169.3331719059339</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>203.5933316365559</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690827</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>343.372584904993</v>
+        <v>297.5642569908811</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>74.09108060706342</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>189.9518552352988</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>3.559750570600608</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>74.75769145492404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.26879610203983</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>118.945071656165</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>33.48579464521143</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>278.4542148551058</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>2.153367246128869</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.670144655842246</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>179.1489883824449</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>147.9212967840876</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534532</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,10 +3483,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>246.6797412004536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395866</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>58.40943379163161</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.2403795762991</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2686.524103264446</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2510.346615578616</v>
       </c>
       <c r="T2" t="n">
-        <v>2294.899305877094</v>
+        <v>2291.711948550679</v>
       </c>
       <c r="U2" t="n">
-        <v>2041.137520515185</v>
+        <v>2291.711948550679</v>
       </c>
       <c r="V2" t="n">
-        <v>1710.074633171615</v>
+        <v>1960.649061207109</v>
       </c>
       <c r="W2" t="n">
-        <v>1357.305977901501</v>
+        <v>1607.880405936995</v>
       </c>
       <c r="X2" t="n">
-        <v>983.8402196404209</v>
+        <v>1234.414647675915</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.8402196404209</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2491.499261082307</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2491.499261082307</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2491.499261082307</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2491.499261082307</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.033502821228</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.894170845416</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4707,19 +4707,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521274</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.981069572904</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C8" t="n">
-        <v>1883.018552632492</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.752854025742</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.964601427497</v>
+        <v>765.4988431664176</v>
       </c>
       <c r="F8" t="n">
-        <v>727.9786966378899</v>
+        <v>354.51293837681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4846,10 +4846,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5023,22 +5023,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,28 +5047,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583.5523174165364</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C13" t="n">
-        <v>414.6161344886295</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145538</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165364</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.5523174165364</v>
+        <v>868.3463665534156</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,19 +5500,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,46 +5521,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,19 +5737,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5758,28 +5758,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>533.5270475124405</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.5338801960603</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C25" t="n">
-        <v>559.5976972681534</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1675.076582412678</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.392094206791</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.97492416983</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.97492416983</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y25" t="n">
-        <v>910.1823450263</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>389.6913148129298</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,7 +6448,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6460,7 +6460,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6478,37 +6478,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.4810578558177</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C31" t="n">
-        <v>409.4810578558177</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>343.8212162463753</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.699007807848</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.596140933492</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.911652727605</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1039.911652727605</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>811.9221018295875</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>591.1295226860574</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C34" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6952,37 +6952,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.613856788637</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>245.6776738607301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1106.472070799367</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>817.0549007624069</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X37" t="n">
-        <v>817.0549007624069</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.2623216188767</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7180,43 +7180,43 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754298</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,19 +7356,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
         <v>725.9916293201816</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,67 +7396,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1897.344038032349</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1897.344038032349</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1675.577422601875</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1386.474555727518</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792135</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>74.52439241114894</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>28.63279811679601</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>248.5778927532274</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>70.6633565680072</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>48.30174944246282</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>112.9481680013577</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>7.75762335050706</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>216.4312861059659</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>140.750903367089</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>40.39996089372428</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.335964134057178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>70.6633565680072</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>5.457902123374396</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>45.39044159700441</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>31.91068339784971</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>30.52271887841572</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191732</v>
+      </c>
+      <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="F2" t="n">
-        <v>635330.8590191726</v>
-      </c>
       <c r="G2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.859019173</v>
       </c>
       <c r="H2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="K2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="L2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.8590191727</v>
-      </c>
-      <c r="L2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191728</v>
       </c>
       <c r="O2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="P2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191727</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-199342.2282436554</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708893</v>
+        <v>390625.6509708894</v>
       </c>
       <c r="D6" t="n">
         <v>390625.6509708891</v>
       </c>
       <c r="E6" t="n">
-        <v>-207250.5204493953</v>
+        <v>-206645.7610373627</v>
       </c>
       <c r="F6" t="n">
-        <v>520126.8935440111</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="G6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560436</v>
       </c>
       <c r="H6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="I6" t="n">
-        <v>520126.8935440111</v>
+        <v>520731.6529560434</v>
       </c>
       <c r="J6" t="n">
-        <v>343703.6743514182</v>
+        <v>344308.4337634505</v>
       </c>
       <c r="K6" t="n">
-        <v>520126.8935440112</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="L6" t="n">
-        <v>520126.8935440112</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="M6" t="n">
-        <v>390484.5787050664</v>
+        <v>391089.3381170988</v>
       </c>
       <c r="N6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560433</v>
       </c>
       <c r="O6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560434</v>
       </c>
       <c r="P6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560434</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.95966469857329</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.11514845172391</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>12.85498872110193</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.5017245654299</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.50172456543</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>70.41158511580198</v>
+        <v>116.2199130299139</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.615617308041251e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502535</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708319</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
